--- a/public/data/yield_loss/yield_table_ghana.xlsx
+++ b/public/data/yield_loss/yield_table_ghana.xlsx
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>51.42</v>
+        <v>51.34</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>14.97</v>
+        <v>14.9</v>
       </c>
       <c r="G76" t="n">
         <v>256.41</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>36.4</v>
+        <v>36.24</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>20.9</v>
+        <v>20.83</v>
       </c>
       <c r="G78" t="n">
         <v>509.65</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>48.43</v>
+        <v>48.27</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>70</v>
+        <v>69.93</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>479.62</v>
+        <v>476.66</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>858.56</v>
+        <v>848.79</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>486.15</v>
+        <v>485.53</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>87.72</v>
+        <v>85.81</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>492.01</v>
+        <v>491.96</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -11186,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>17.8</v>
+        <v>17.74</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M170" t="n">
         <v>0</v>
@@ -16288,13 +16288,13 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>188.66</v>
+        <v>176.79</v>
       </c>
       <c r="G181" t="n">
         <v>313.24</v>
       </c>
       <c r="H181" t="n">
-        <v>3.08</v>
+        <v>2.82</v>
       </c>
       <c r="I181" t="n">
         <v>11.58</v>
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>40.1</v>
+        <v>37.54</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
@@ -16333,7 +16333,7 @@
         <v>82.57</v>
       </c>
       <c r="U181" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="V181" t="n">
         <v>45.52</v>
@@ -16368,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>212.02</v>
+        <v>211.83</v>
       </c>
       <c r="G182" t="n">
         <v>46.7</v>
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>45.07</v>
+        <v>45.03</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
@@ -16413,7 +16413,7 @@
         <v>98.34</v>
       </c>
       <c r="U182" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V182" t="n">
         <v>2.27</v>
@@ -16768,13 +16768,13 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>232.13</v>
+        <v>221.87</v>
       </c>
       <c r="G187" t="n">
         <v>137.95</v>
       </c>
       <c r="H187" t="n">
-        <v>3.33</v>
+        <v>3.19</v>
       </c>
       <c r="I187" t="n">
         <v>1.74</v>
@@ -16786,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>31.75</v>
+        <v>29.6</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
@@ -16813,7 +16813,7 @@
         <v>151.64</v>
       </c>
       <c r="U187" t="n">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="V187" t="n">
         <v>2.52</v>
@@ -20208,13 +20208,13 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>164.35</v>
+        <v>163.59</v>
       </c>
       <c r="G230" t="n">
         <v>91.26</v>
       </c>
       <c r="H230" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="I230" t="n">
         <v>0.65</v>
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>25.93</v>
+        <v>25.81</v>
       </c>
       <c r="M230" t="n">
         <v>0</v>
@@ -20952,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="N239" t="n">
-        <v>2540.75</v>
+        <v>2531.08</v>
       </c>
       <c r="O239" t="n">
         <v>0</v>
@@ -21112,7 +21112,7 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
-        <v>2527.39</v>
+        <v>2251.68</v>
       </c>
       <c r="O241" t="n">
         <v>0</v>
@@ -21168,7 +21168,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>75.35</v>
+        <v>44.15</v>
       </c>
       <c r="G242" t="n">
         <v>6688.72</v>
@@ -21186,13 +21186,13 @@
         <v>0</v>
       </c>
       <c r="L242" t="n">
-        <v>306.38</v>
+        <v>184.61</v>
       </c>
       <c r="M242" t="n">
         <v>0</v>
       </c>
       <c r="N242" t="n">
-        <v>2584</v>
+        <v>2509.96</v>
       </c>
       <c r="O242" t="n">
         <v>0</v>
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="U242" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="V242" t="n">
         <v>13.2</v>
@@ -21352,7 +21352,7 @@
         <v>0</v>
       </c>
       <c r="N244" t="n">
-        <v>2221.08</v>
+        <v>2191.44</v>
       </c>
       <c r="O244" t="n">
         <v>0</v>
@@ -21672,7 +21672,7 @@
         <v>0</v>
       </c>
       <c r="N248" t="n">
-        <v>1056.18</v>
+        <v>1055.32</v>
       </c>
       <c r="O248" t="n">
         <v>0</v>
@@ -21912,7 +21912,7 @@
         <v>0</v>
       </c>
       <c r="N251" t="n">
-        <v>3697.61</v>
+        <v>3694.08</v>
       </c>
       <c r="O251" t="n">
         <v>0</v>
@@ -22048,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>136.65</v>
+        <v>129.57</v>
       </c>
       <c r="G253" t="n">
         <v>2790.98</v>
@@ -22066,13 +22066,13 @@
         <v>0</v>
       </c>
       <c r="L253" t="n">
-        <v>408.54</v>
+        <v>387.08</v>
       </c>
       <c r="M253" t="n">
         <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>7163.06</v>
+        <v>7158.53</v>
       </c>
       <c r="O253" t="n">
         <v>0</v>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="U253" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="V253" t="n">
         <v>18.77</v>
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>36.74</v>
+        <v>29.06</v>
       </c>
       <c r="G254" t="n">
         <v>702.09</v>
@@ -22146,7 +22146,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="n">
-        <v>129.42</v>
+        <v>101.45</v>
       </c>
       <c r="M254" t="n">
         <v>0</v>
@@ -22173,7 +22173,7 @@
         <v>0</v>
       </c>
       <c r="U254" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="V254" t="n">
         <v>9.43</v>
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>209.71</v>
+        <v>187.96</v>
       </c>
       <c r="G255" t="n">
         <v>781.64</v>
@@ -22226,7 +22226,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>567.6</v>
+        <v>510.27</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
@@ -22253,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="U255" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="V255" t="n">
         <v>53.29</v>
@@ -22448,7 +22448,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>54.33</v>
+        <v>44.63</v>
       </c>
       <c r="G258" t="n">
         <v>509.51</v>
@@ -22466,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="n">
-        <v>140.77</v>
+        <v>115.66</v>
       </c>
       <c r="M258" t="n">
         <v>0</v>
@@ -22493,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="U258" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="V258" t="n">
         <v>19.45</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>37.48</v>
+        <v>36.53</v>
       </c>
       <c r="G261" t="n">
         <v>164.8</v>
@@ -22706,7 +22706,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="n">
-        <v>89.56</v>
+        <v>87.31</v>
       </c>
       <c r="M261" t="n">
         <v>0</v>
